--- a/Data/Prozac.xlsx
+++ b/Data/Prozac.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdcromar\Documents\Documents\Math 221\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Downloads\Temp data folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3568A3B-152F-4488-A26D-A30BA339C99F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF43FCE-108C-456E-A034-B0B4241A7A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,13 +36,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>MoodPre</t>
+    <t>patient</t>
   </si>
   <si>
-    <t>MoodPost</t>
+    <t>mood_pre</t>
   </si>
   <si>
-    <t>Patient</t>
+    <t>mood_post</t>
   </si>
 </sst>
 </file>
@@ -365,9 +365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -377,13 +375,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
